--- a/Battery tracker Ireland.xlsx
+++ b/Battery tracker Ireland.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0faf2b234c2fa243/Documents/Energy Business Dev/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0faf2b234c2fa243/Documents/Energy Business Dev/Ireland/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="8_{FEF246D1-5F44-4AD4-A834-00EF4D30E33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8150DFCD-BE74-4DF9-83D3-3F0946D8DC02}"/>
+  <xr:revisionPtr revIDLastSave="165" documentId="8_{FEF246D1-5F44-4AD4-A834-00EF4D30E33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B98B203-53DF-471D-9E14-E92404F7396D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12585" windowWidth="51840" windowHeight="21840" activeTab="4" xr2:uid="{D84FF98D-2B22-45E0-8CFC-3663711FE0A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="6" xr2:uid="{D84FF98D-2B22-45E0-8CFC-3663711FE0A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="31" r:id="rId10"/>
+    <pivotCache cacheId="34" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="692">
   <si>
     <t>Company Name</t>
   </si>
@@ -2133,6 +2133,9 @@
   </si>
   <si>
     <t>All BESS Projects</t>
+  </si>
+  <si>
+    <t>Vast Majority of BESS are 1hr or shorter duration</t>
   </si>
 </sst>
 </file>
@@ -2140,10 +2143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="168" formatCode="mmm\-yyyy"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
-    <numFmt numFmtId="172" formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="[$€-2]\ #,##0;[Red]\-[$€-2]\ #,##0"/>
+    <numFmt numFmtId="167" formatCode="[$€-2]\ #,##0.00;[Red]\-[$€-2]\ #,##0.00"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -2481,7 +2484,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2559,13 +2562,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2577,7 +2580,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2585,13 +2588,10 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2618,7 +2618,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2627,7 +2627,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2638,11 +2638,8 @@
   </cellStyles>
   <dxfs count="45">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -2652,27 +2649,23 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color indexed="9"/>
-        <name val="Arial"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="0"/>
-          <bgColor indexed="40"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2688,11 +2681,168 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color auto="1"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2920,7 +3070,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="169" formatCode="0.000"/>
+      <numFmt numFmtId="165" formatCode="0.000"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -3051,13 +3201,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -3067,6 +3210,32 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -3084,18 +3253,31 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Aptos Narrow"/>
+        <color indexed="9"/>
+        <name val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF4BACC6"/>
+          <fgColor indexed="0"/>
+          <bgColor indexed="40"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -3225,7 +3407,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="168" formatCode="mmm\-yyyy"/>
+      <numFmt numFmtId="164" formatCode="mmm\-yyyy"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -3434,6 +3616,31 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF4BACC6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3480,213 +3687,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3715,8 +3715,8 @@
       <xdr:row>23</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Category">
@@ -3739,7 +3739,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3781,6 +3781,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4059,7 +4063,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4EC07827-BFD2-4CB2-BB7A-670EA8DD9214}" name="PivotTable1" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption=" ">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4EC07827-BFD2-4CB2-BB7A-670EA8DD9214}" name="PivotTable1" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption=" ">
   <location ref="A3:A25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -4252,37 +4256,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0E402EF5-8654-414D-9078-A77C7CC4D4CD}" name="Table1" displayName="Table1" ref="A1:H41" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0E402EF5-8654-414D-9078-A77C7CC4D4CD}" name="Table1" displayName="Table1" ref="A1:H41" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="A1:H41" xr:uid="{0E402EF5-8654-414D-9078-A77C7CC4D4CD}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5F7DAFFA-B512-4A85-AD20-AFF049C10748}" name="Company Name" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{460A776D-7F93-4DE3-853D-B561126E292F}" name="Category" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{8DEB5414-1EAF-4C6D-AE8F-BFB6A421A61D}" name="Location" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{C0ABE9C5-1D5B-498D-A9B6-52ACFC608366}" name="Project Notes" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{03BC0561-9044-408C-ABD2-C2AF54DA955F}" name="Address" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{6A23CAC6-BB1E-4B92-ACCD-4A33F3E4CF48}" name="Website" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{0D87ACC0-162E-4042-8DE9-A168241F65D3}" name="Additional Information" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{A69D1B8F-04BB-4977-BDEE-616E77A3EBAB}" name="Likelihood " dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{5F7DAFFA-B512-4A85-AD20-AFF049C10748}" name="Company Name" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{460A776D-7F93-4DE3-853D-B561126E292F}" name="Category" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{8DEB5414-1EAF-4C6D-AE8F-BFB6A421A61D}" name="Location" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{C0ABE9C5-1D5B-498D-A9B6-52ACFC608366}" name="Project Notes" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{03BC0561-9044-408C-ABD2-C2AF54DA955F}" name="Address" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{6A23CAC6-BB1E-4B92-ACCD-4A33F3E4CF48}" name="Website" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{0D87ACC0-162E-4042-8DE9-A168241F65D3}" name="Additional Information" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{A69D1B8F-04BB-4977-BDEE-616E77A3EBAB}" name="Likelihood " dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4BF6A543-CE45-4A37-A788-2B5F166C1185}" name="Table3" displayName="Table3" ref="A7:K22" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4BF6A543-CE45-4A37-A788-2B5F166C1185}" name="Table3" displayName="Table3" ref="A7:K22" totalsRowShown="0" headerRowDxfId="34">
   <autoFilter ref="A7:K22" xr:uid="{4BF6A543-CE45-4A37-A788-2B5F166C1185}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{F6C7E86F-8103-41CB-B7AB-C2FC6B205A6F}" name="Generator" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{DCD94717-3FC2-43F2-B4AF-AB509A8C98F4}" name="Code" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{F6C7E86F-8103-41CB-B7AB-C2FC6B205A6F}" name="Generator" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{DCD94717-3FC2-43F2-B4AF-AB509A8C98F4}" name="Code" dataDxfId="32"/>
     <tableColumn id="3" xr3:uid="{560D1A6C-5B65-4B12-BD53-3B22B9088584}" name="Type"/>
-    <tableColumn id="4" xr3:uid="{B04CE2EF-DE1E-4781-925B-B707E4CFAE62}" name="MEC (MW)" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{89895E58-F278-4E32-AF35-5DADAD6E077A}" name="Permissible / Installed Capacity (MW)" dataDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{721A3D90-F5BB-47ED-938B-7371321887A7}" name="Energy (MWh)" dataDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{CF114822-7B97-42C2-B905-5D1B24C1C5A0}" name="Full/Latest Connection Date" dataDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{A3F124AE-2CFA-479C-A335-E5C075A26FCA}" name="County" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{2FF4170E-024D-4FC6-8167-1686818D6F4F}" name="Connection Node" dataDxfId="18"/>
-    <tableColumn id="10" xr3:uid="{BD113B59-178C-485A-9823-7492EE794C00}" name="Associated Voltage (kV)" dataDxfId="17"/>
-    <tableColumn id="11" xr3:uid="{5EAA1D4C-B970-4985-8289-BFE9A68658E4}" name="Duration" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{B04CE2EF-DE1E-4781-925B-B707E4CFAE62}" name="MEC (MW)" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{89895E58-F278-4E32-AF35-5DADAD6E077A}" name="Permissible / Installed Capacity (MW)" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{721A3D90-F5BB-47ED-938B-7371321887A7}" name="Energy (MWh)" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{CF114822-7B97-42C2-B905-5D1B24C1C5A0}" name="Full/Latest Connection Date" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{A3F124AE-2CFA-479C-A335-E5C075A26FCA}" name="County" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{2FF4170E-024D-4FC6-8167-1686818D6F4F}" name="Connection Node" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{BD113B59-178C-485A-9823-7492EE794C00}" name="Associated Voltage (kV)" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{5EAA1D4C-B970-4985-8289-BFE9A68658E4}" name="Duration" dataDxfId="24">
       <calculatedColumnFormula>F8/E8</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4291,36 +4295,36 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ABD5F9BB-F176-4BFA-B954-A70D1E3721C7}" name="Table4" displayName="Table4" ref="Q7:Z12" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2" headerRowBorderDxfId="14" tableBorderDxfId="15" totalsRowBorderDxfId="13" headerRowCellStyle="Normal_Sheet1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{ABD5F9BB-F176-4BFA-B954-A70D1E3721C7}" name="Table4" displayName="Table4" ref="Q7:Z12" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19" headerRowCellStyle="Normal_Sheet1">
   <autoFilter ref="Q7:Z12" xr:uid="{ABD5F9BB-F176-4BFA-B954-A70D1E3721C7}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{6BEBEF4B-2226-4DF0-AF98-D0284DEC179D}" name="Generator Reference" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{37EF3B18-29F5-4432-A7E7-E2E31AA8C332}" name="Project" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{F415D67C-CDA3-4BD6-9986-D01D94212719}" name="Type" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{B3D8616D-C921-4D37-B833-13053A7EBB85}" name="MEC (MW)" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{A14E59A9-6B9C-4F0F-A9FB-8760AB293015}" name="Feeding Station" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{0850068E-AF15-41CD-8B17-8D3E2CA2C509}" name="Feeding 110kV Station" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{D04C9176-8BE9-447E-BE31-A3B3758B031E}" name="Offer Type" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{7C4AE622-DD0F-4AB5-ADF1-CC1F9F343C08}" name="Status" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{3E01D399-0B4B-4BBF-8ED2-AF71D3E38DAA}" name="Connection Date" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{EB4EA15F-5B3D-432C-8CE5-BCB5A3EBE955}" name="Connection Voltage" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{6BEBEF4B-2226-4DF0-AF98-D0284DEC179D}" name="Generator Reference" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{37EF3B18-29F5-4432-A7E7-E2E31AA8C332}" name="Project" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{F415D67C-CDA3-4BD6-9986-D01D94212719}" name="Type" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{B3D8616D-C921-4D37-B833-13053A7EBB85}" name="MEC (MW)" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{A14E59A9-6B9C-4F0F-A9FB-8760AB293015}" name="Feeding Station" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{0850068E-AF15-41CD-8B17-8D3E2CA2C509}" name="Feeding 110kV Station" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{D04C9176-8BE9-447E-BE31-A3B3758B031E}" name="Offer Type" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{7C4AE622-DD0F-4AB5-ADF1-CC1F9F343C08}" name="Status" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{3E01D399-0B4B-4BBF-8ED2-AF71D3E38DAA}" name="Connection Date" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{EB4EA15F-5B3D-432C-8CE5-BCB5A3EBE955}" name="Connection Voltage" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{922E40F2-F928-408C-98B8-F77ADADF7AA3}" name="Table2" displayName="Table2" ref="A1:E23" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="43" tableBorderDxfId="44" totalsRowBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{922E40F2-F928-408C-98B8-F77ADADF7AA3}" name="Table2" displayName="Table2" ref="A1:E23" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A1:E23" xr:uid="{922E40F2-F928-408C-98B8-F77ADADF7AA3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E23">
     <sortCondition descending="1" ref="C1:C23"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{57C7CAB9-7B16-42D9-93F1-45060140F44C}" name="Party Name" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{588EA6AA-E5B3-4097-8464-832C58FED382}" name="Intermediary" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{8411B01A-E9E3-4809-84EA-0E903B7A1364}" name="Effective Date" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{129C2C8B-928E-4858-92F3-99C972B02674}" name="Unit Name" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{905AF7A6-4E82-459E-A950-CE36045CE6C5}" name=" Capacity (MW)" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{57C7CAB9-7B16-42D9-93F1-45060140F44C}" name="Party Name" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{588EA6AA-E5B3-4097-8464-832C58FED382}" name="Intermediary" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{8411B01A-E9E3-4809-84EA-0E903B7A1364}" name="Effective Date" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{129C2C8B-928E-4858-92F3-99C972B02674}" name="Unit Name" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{905AF7A6-4E82-459E-A950-CE36045CE6C5}" name=" Capacity (MW)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4809,8 +4813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83A32FC-03AF-451D-8E1B-0F0B20A6E8A3}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4873,7 +4877,7 @@
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="39">
+      <c r="H2" s="2">
         <v>6</v>
       </c>
     </row>
@@ -4899,7 +4903,7 @@
       <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="2">
         <v>6</v>
       </c>
     </row>
@@ -4925,7 +4929,7 @@
       <c r="G4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="2">
         <v>6</v>
       </c>
     </row>
@@ -4951,7 +4955,7 @@
       <c r="G5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="2">
         <v>6</v>
       </c>
     </row>
@@ -4977,7 +4981,7 @@
       <c r="G6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5003,7 +5007,7 @@
       <c r="G7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5029,7 +5033,7 @@
       <c r="G8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5055,7 +5059,7 @@
       <c r="G9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5081,7 +5085,7 @@
       <c r="G10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5107,7 +5111,7 @@
       <c r="G11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5133,7 +5137,7 @@
       <c r="G12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5159,7 +5163,7 @@
       <c r="G13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5185,7 +5189,7 @@
       <c r="G14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5211,7 +5215,7 @@
       <c r="G15" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5237,7 +5241,7 @@
       <c r="G16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5263,7 +5267,7 @@
       <c r="G17" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5289,7 +5293,7 @@
       <c r="G18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5315,7 +5319,7 @@
       <c r="G19" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5341,7 +5345,7 @@
       <c r="G20" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5355,7 +5359,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="39">
+      <c r="H21" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5369,7 +5373,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="39">
+      <c r="H22" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5383,7 +5387,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-      <c r="H23" s="39">
+      <c r="H23" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5399,7 +5403,7 @@
         <v>572</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="39">
+      <c r="H24" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5413,7 +5417,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-      <c r="H25" s="39">
+      <c r="H25" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5427,7 +5431,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="39">
+      <c r="H26" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5441,7 +5445,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-      <c r="H27" s="39">
+      <c r="H27" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5457,7 +5461,7 @@
         <v>447</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="39">
+      <c r="H28" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5473,7 +5477,7 @@
         <v>449</v>
       </c>
       <c r="G29" s="2"/>
-      <c r="H29" s="39">
+      <c r="H29" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5487,7 +5491,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-      <c r="H30" s="39">
+      <c r="H30" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5503,7 +5507,7 @@
         <v>452</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="39">
+      <c r="H31" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5517,7 +5521,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="H32" s="39">
+      <c r="H32" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5531,7 +5535,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="H33" s="39">
+      <c r="H33" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5545,7 +5549,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-      <c r="H34" s="39">
+      <c r="H34" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5565,7 +5569,7 @@
       <c r="G35" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="H35" s="39">
+      <c r="H35" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5579,7 +5583,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
-      <c r="H36" s="39">
+      <c r="H36" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5595,7 +5599,7 @@
         <v>452</v>
       </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="39">
+      <c r="H37" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5611,7 +5615,7 @@
         <v>574</v>
       </c>
       <c r="G38" s="2"/>
-      <c r="H38" s="39">
+      <c r="H38" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5625,7 +5629,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="H39" s="39">
+      <c r="H39" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5639,7 +5643,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
-      <c r="H40" s="39">
+      <c r="H40" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5657,7 +5661,7 @@
         <v>578</v>
       </c>
       <c r="G41" s="2"/>
-      <c r="H41" s="39">
+      <c r="H41" s="2">
         <v>6</v>
       </c>
     </row>
@@ -5671,10 +5675,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02044C02-0A80-4803-B9C6-526F1706B6B3}">
-  <dimension ref="A4:Z22"/>
+  <dimension ref="A4:Z36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5744,37 +5748,37 @@
       <c r="J7" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="K7" s="53" t="s">
+      <c r="K7" s="52" t="s">
         <v>580</v>
       </c>
-      <c r="Q7" s="44" t="s">
+      <c r="Q7" s="43" t="s">
         <v>533</v>
       </c>
-      <c r="R7" s="45" t="s">
+      <c r="R7" s="44" t="s">
         <v>534</v>
       </c>
-      <c r="S7" s="45" t="s">
+      <c r="S7" s="44" t="s">
         <v>494</v>
       </c>
-      <c r="T7" s="45" t="s">
+      <c r="T7" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="U7" s="45" t="s">
+      <c r="U7" s="44" t="s">
         <v>535</v>
       </c>
-      <c r="V7" s="45" t="s">
+      <c r="V7" s="44" t="s">
         <v>536</v>
       </c>
-      <c r="W7" s="45" t="s">
+      <c r="W7" s="44" t="s">
         <v>537</v>
       </c>
-      <c r="X7" s="45" t="s">
+      <c r="X7" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="Y7" s="46" t="s">
+      <c r="Y7" s="45" t="s">
         <v>495</v>
       </c>
-      <c r="Z7" s="47" t="s">
+      <c r="Z7" s="46" t="s">
         <v>538</v>
       </c>
     </row>
@@ -5813,7 +5817,7 @@
         <f>F8/E8</f>
         <v>0.51454545454545453</v>
       </c>
-      <c r="Q8" s="42" t="s">
+      <c r="Q8" s="41" t="s">
         <v>544</v>
       </c>
       <c r="R8" s="34" t="s">
@@ -5840,7 +5844,7 @@
       <c r="Y8" s="36">
         <v>44687</v>
       </c>
-      <c r="Z8" s="43" t="s">
+      <c r="Z8" s="42" t="s">
         <v>543</v>
       </c>
     </row>
@@ -5879,7 +5883,7 @@
         <f t="shared" ref="K9:K22" si="0">F9/E9</f>
         <v>0.50375939849624063</v>
       </c>
-      <c r="Q9" s="42" t="s">
+      <c r="Q9" s="41" t="s">
         <v>549</v>
       </c>
       <c r="R9" s="34" t="s">
@@ -5906,7 +5910,7 @@
       <c r="Y9" s="36">
         <v>44837</v>
       </c>
-      <c r="Z9" s="43" t="s">
+      <c r="Z9" s="42" t="s">
         <v>540</v>
       </c>
     </row>
@@ -5945,7 +5949,7 @@
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="Q10" s="42" t="s">
+      <c r="Q10" s="41" t="s">
         <v>552</v>
       </c>
       <c r="R10" s="34" t="s">
@@ -5972,7 +5976,7 @@
       <c r="Y10" s="36">
         <v>44573</v>
       </c>
-      <c r="Z10" s="43" t="s">
+      <c r="Z10" s="42" t="s">
         <v>540</v>
       </c>
     </row>
@@ -6011,7 +6015,7 @@
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="Q11" s="42" t="s">
+      <c r="Q11" s="41" t="s">
         <v>556</v>
       </c>
       <c r="R11" s="34" t="s">
@@ -6038,7 +6042,7 @@
       <c r="Y11" s="36">
         <v>44551</v>
       </c>
-      <c r="Z11" s="43" t="s">
+      <c r="Z11" s="42" t="s">
         <v>541</v>
       </c>
     </row>
@@ -6077,34 +6081,34 @@
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
-      <c r="Q12" s="48" t="s">
+      <c r="Q12" s="47" t="s">
         <v>559</v>
       </c>
-      <c r="R12" s="49" t="s">
+      <c r="R12" s="48" t="s">
         <v>560</v>
       </c>
-      <c r="S12" s="49" t="s">
+      <c r="S12" s="48" t="s">
         <v>546</v>
       </c>
-      <c r="T12" s="50">
+      <c r="T12" s="49">
         <v>8.5</v>
       </c>
-      <c r="U12" s="49" t="s">
+      <c r="U12" s="48" t="s">
         <v>378</v>
       </c>
-      <c r="V12" s="49" t="s">
+      <c r="V12" s="48" t="s">
         <v>561</v>
       </c>
-      <c r="W12" s="49" t="s">
+      <c r="W12" s="48" t="s">
         <v>548</v>
       </c>
-      <c r="X12" s="49" t="s">
+      <c r="X12" s="48" t="s">
         <v>539</v>
       </c>
-      <c r="Y12" s="51">
+      <c r="Y12" s="50">
         <v>44183</v>
       </c>
-      <c r="Z12" s="52" t="s">
+      <c r="Z12" s="51" t="s">
         <v>542</v>
       </c>
     </row>
@@ -6452,6 +6456,11 @@
       <c r="K22" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -6468,7 +6477,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6529,7 +6538,7 @@
       <c r="E2" s="2">
         <v>8.0719999999999992</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="39">
         <v>47820</v>
       </c>
       <c r="G2" s="2">
@@ -6558,7 +6567,7 @@
       <c r="E3" s="2">
         <v>2.0569999999999999</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="39">
         <v>47820</v>
       </c>
       <c r="G3" s="2">
@@ -6587,7 +6596,7 @@
       <c r="E4" s="2">
         <v>7.26</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="40">
         <v>146919.99</v>
       </c>
       <c r="G4" s="2">
@@ -6616,7 +6625,7 @@
       <c r="E5" s="2">
         <v>2.472</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="39">
         <v>137950</v>
       </c>
       <c r="G5" s="2">
@@ -6645,7 +6654,7 @@
       <c r="E6" s="2">
         <v>1.6160000000000001</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="39">
         <v>137950</v>
       </c>
       <c r="G6" s="2">
@@ -6693,7 +6702,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="40"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -6715,9 +6724,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10619,8 +10626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FBC97EC-9FBF-43D1-9CF4-8B911E6259B3}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11161,8 +11168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19C6973-7AE5-4CEC-A0B5-4828AE82183F}">
   <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
